--- a/data/trans_bre/P21D_1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P21D_1_R-Clase-trans_bre.xlsx
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.007095143806668</v>
+        <v>0.9209472895739433</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.130901065600092</v>
+        <v>1.048760669663265</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.08795050202013228</v>
+        <v>0.08795050202013227</v>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2681173925636871</v>
+        <v>0.2806867086328835</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
